--- a/data/trans_orig/P16A_n_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>158655</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139076</v>
+        <v>137329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>180940</v>
+        <v>180376</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.271603509468305</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2380869744712372</v>
+        <v>0.2350953733470471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3097535341297549</v>
+        <v>0.3087877113974737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>355</v>
@@ -765,19 +765,19 @@
         <v>363285</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>330525</v>
+        <v>333401</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>392658</v>
+        <v>392957</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3938758296964317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.35835738764057</v>
+        <v>0.3614762304738908</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4257228311099235</v>
+        <v>0.4260466870193312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>518</v>
@@ -786,19 +786,19 @@
         <v>521939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>489588</v>
+        <v>488870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>563055</v>
+        <v>560202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3464642583246915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3249893565482646</v>
+        <v>0.3245124160698737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3737568239956797</v>
+        <v>0.3718627574744625</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>425486</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403201</v>
+        <v>403765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>445065</v>
+        <v>446812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.728396490531695</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6902464658702453</v>
+        <v>0.6912122886025263</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7619130255287633</v>
+        <v>0.764904626652953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>530</v>
@@ -836,19 +836,19 @@
         <v>559048</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>529675</v>
+        <v>529376</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>591808</v>
+        <v>588932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6061241703035684</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5742771688900765</v>
+        <v>0.5739533129806688</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6416426123594301</v>
+        <v>0.6385237695261091</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>941</v>
@@ -857,19 +857,19 @@
         <v>984535</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>943419</v>
+        <v>946272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1016886</v>
+        <v>1017604</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6535357416753085</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6262431760043202</v>
+        <v>0.6281372425255374</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6750106434517353</v>
+        <v>0.6754875839301262</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>185592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>163580</v>
+        <v>162275</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>211581</v>
+        <v>212206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1721805946620526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1517587464021355</v>
+        <v>0.15054812478508</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.196291405106658</v>
+        <v>0.1968705622429445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -982,19 +982,19 @@
         <v>299820</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>270615</v>
+        <v>272183</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331417</v>
+        <v>331314</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2835073400917824</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2558912708635558</v>
+        <v>0.2573744519115616</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3133850303683693</v>
+        <v>0.3132877426886745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>477</v>
@@ -1003,19 +1003,19 @@
         <v>485412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>445568</v>
+        <v>449837</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>523730</v>
+        <v>526424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2273133556627051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2086545639538457</v>
+        <v>0.2106538449946483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2452573375089452</v>
+        <v>0.2465187242284524</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>892302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>866313</v>
+        <v>865688</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>914314</v>
+        <v>915619</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8278194053379474</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.803708594893342</v>
+        <v>0.8031294377570557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8482412535978645</v>
+        <v>0.8494518752149199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>741</v>
@@ -1053,19 +1053,19 @@
         <v>757718</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>726121</v>
+        <v>726224</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>786923</v>
+        <v>785355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7164926599082175</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.686614969631632</v>
+        <v>0.6867122573113256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7441087291364445</v>
+        <v>0.7426255480884387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1606</v>
@@ -1074,19 +1074,19 @@
         <v>1650020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1611702</v>
+        <v>1609008</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1689864</v>
+        <v>1685595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7726866443372948</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7547426624910547</v>
+        <v>0.7534812757715476</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7913454360461544</v>
+        <v>0.7893461550053517</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>145822</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125558</v>
+        <v>124739</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167688</v>
+        <v>169635</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1300130213162185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1119458308569734</v>
+        <v>0.1112160329313128</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.149508440182382</v>
+        <v>0.1512445223917085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>231</v>
@@ -1199,19 +1199,19 @@
         <v>236193</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211199</v>
+        <v>209352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>263978</v>
+        <v>263929</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2376330680317967</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2124867028463136</v>
+        <v>0.2106283880310962</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2655876850992767</v>
+        <v>0.2655378350293963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>380</v>
@@ -1220,19 +1220,19 @@
         <v>382015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350449</v>
+        <v>345589</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>416415</v>
+        <v>417751</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1805760624873275</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1656552330338878</v>
+        <v>0.1633577902509535</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1968369267528871</v>
+        <v>0.1974681444811633</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>975772</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>953906</v>
+        <v>951959</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>996036</v>
+        <v>996855</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8699869786837815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8504915598176179</v>
+        <v>0.8487554776082916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8880541691430266</v>
+        <v>0.8887839670686873</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>751</v>
@@ -1270,19 +1270,19 @@
         <v>757747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729962</v>
+        <v>730011</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>782741</v>
+        <v>784588</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7623669319682033</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7344123149007233</v>
+        <v>0.7344621649706038</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7875132971536863</v>
+        <v>0.7893716119689042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1705</v>
@@ -1291,19 +1291,19 @@
         <v>1733519</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1699119</v>
+        <v>1697783</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1765085</v>
+        <v>1769945</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8194239375126725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8031630732471129</v>
+        <v>0.8025318555188364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8343447669661123</v>
+        <v>0.8366422097490465</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>68936</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54030</v>
+        <v>53801</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84723</v>
+        <v>84632</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1541505876322491</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1208184648110087</v>
+        <v>0.1203055629921489</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1894517641028053</v>
+        <v>0.1892492668981835</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>77</v>
@@ -1416,19 +1416,19 @@
         <v>79328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64625</v>
+        <v>64088</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>95672</v>
+        <v>97314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2325270083426844</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1894279158511456</v>
+        <v>0.187854026140584</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2804324368443137</v>
+        <v>0.2852463484938826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -1437,19 +1437,19 @@
         <v>148265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>124427</v>
+        <v>127074</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>171307</v>
+        <v>170903</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1880676169984361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1578306932950541</v>
+        <v>0.1611886827204571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.217295326562315</v>
+        <v>0.2167830340029028</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>378264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362477</v>
+        <v>362568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393170</v>
+        <v>393399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8458494123677509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8105482358971947</v>
+        <v>0.8107507331018167</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8791815351889913</v>
+        <v>0.8796944370078512</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1487,19 +1487,19 @@
         <v>261830</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>245486</v>
+        <v>243844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>276533</v>
+        <v>277070</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7674729916573156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7195675631556863</v>
+        <v>0.7147536515061171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8105720841488543</v>
+        <v>0.8121459738594159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>629</v>
@@ -1508,19 +1508,19 @@
         <v>640093</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>617051</v>
+        <v>617455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>663931</v>
+        <v>661284</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8119323830015639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7827046734376851</v>
+        <v>0.7832169659970972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8421693067049459</v>
+        <v>0.8388113172795429</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>559005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>516553</v>
+        <v>517961</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>603257</v>
+        <v>601330</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1730222097003569</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.159882374482678</v>
+        <v>0.1603183115297287</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1867190836463886</v>
+        <v>0.1861224757313356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>950</v>
@@ -1633,19 +1633,19 @@
         <v>978626</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>930232</v>
+        <v>925405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1031455</v>
+        <v>1031591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2952142072822042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2806156134640137</v>
+        <v>0.2791593565222424</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3111506975299898</v>
+        <v>0.3111917041901899</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1521</v>
@@ -1654,19 +1654,19 @@
         <v>1537631</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1468668</v>
+        <v>1470289</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1605981</v>
+        <v>1613633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2349035349333654</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2243681095039892</v>
+        <v>0.2246157346260398</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2453453769075376</v>
+        <v>0.2465143958852622</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2671824</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2627572</v>
+        <v>2629499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2714276</v>
+        <v>2712868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8269777902996431</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8132809163536115</v>
+        <v>0.8138775242686647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8401176255173224</v>
+        <v>0.8396816884702715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2284</v>
@@ -1704,19 +1704,19 @@
         <v>2336343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2283514</v>
+        <v>2283378</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2384737</v>
+        <v>2389564</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7047857927177958</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6888493024700106</v>
+        <v>0.6888082958098102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7193843865359865</v>
+        <v>0.7208406434777576</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4881</v>
@@ -1725,19 +1725,19 @@
         <v>5008167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4939817</v>
+        <v>4932165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5077130</v>
+        <v>5075509</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7650964650666345</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7546546230924628</v>
+        <v>0.7534856041147379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7756318904960109</v>
+        <v>0.7753842653739602</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>259415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229039</v>
+        <v>230591</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>286017</v>
+        <v>289152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2484974057157429</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2193996379065216</v>
+        <v>0.2208859751798994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2739795856433772</v>
+        <v>0.2769824029871208</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>470</v>
@@ -2090,19 +2090,19 @@
         <v>508338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>475867</v>
+        <v>473104</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>543215</v>
+        <v>543013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4539024778476552</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4249083125982253</v>
+        <v>0.4224414256046021</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4850446375298657</v>
+        <v>0.4848637692787473</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>704</v>
@@ -2111,19 +2111,19 @@
         <v>767753</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>726903</v>
+        <v>720814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>813742</v>
+        <v>810644</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3548067924321085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3359283253565667</v>
+        <v>0.3331142859755</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3760599811020524</v>
+        <v>0.3746280317548816</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>784520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>757918</v>
+        <v>754783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>814896</v>
+        <v>813344</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.751502594284257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7260204143566228</v>
+        <v>0.723017597012879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7806003620934783</v>
+        <v>0.7791140248201005</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>561</v>
@@ -2161,19 +2161,19 @@
         <v>611590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>576713</v>
+        <v>576915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>644061</v>
+        <v>646824</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5460975221523449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5149553624701345</v>
+        <v>0.5151362307212528</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.575091687401775</v>
+        <v>0.5775585743953979</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1305</v>
@@ -2182,19 +2182,19 @@
         <v>1396110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1350121</v>
+        <v>1353219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1436960</v>
+        <v>1443049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6451932075678916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6239400188979476</v>
+        <v>0.6253719682451184</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6640716746434333</v>
+        <v>0.6668857140244999</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>249294</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>217438</v>
+        <v>221844</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>278068</v>
+        <v>277149</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2551440254475794</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2225403911946845</v>
+        <v>0.2270496745677742</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2845928921221429</v>
+        <v>0.283652240695255</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>425</v>
@@ -2307,19 +2307,19 @@
         <v>453302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>419361</v>
+        <v>421101</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>489803</v>
+        <v>487416</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4142537748246995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3832359879222802</v>
+        <v>0.3848261144969963</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4476107978716619</v>
+        <v>0.4454291052908723</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>653</v>
@@ -2328,19 +2328,19 @@
         <v>702597</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>656075</v>
+        <v>659903</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>747000</v>
+        <v>744010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3391998553328798</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3167402238292454</v>
+        <v>0.3185881862907001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.360636834250718</v>
+        <v>0.3591933230614385</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>727779</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>699005</v>
+        <v>699924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>759635</v>
+        <v>755229</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7448559745524206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7154071078778573</v>
+        <v>0.7163477593047449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7774596088053158</v>
+        <v>0.7729503254322259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>595</v>
@@ -2378,19 +2378,19 @@
         <v>640960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>604459</v>
+        <v>606846</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>674901</v>
+        <v>673161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5857462251753004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5523892021283381</v>
+        <v>0.5545708947091278</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6167640120777196</v>
+        <v>0.6151738855030038</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1291</v>
@@ -2399,19 +2399,19 @@
         <v>1368738</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1324335</v>
+        <v>1327325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1415260</v>
+        <v>1411432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6608001446671202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6393631657492819</v>
+        <v>0.6408066769385617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6832597761707545</v>
+        <v>0.6814118137093</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>253044</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>226035</v>
+        <v>228797</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>279368</v>
+        <v>286470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2858885550014345</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2553741028435157</v>
+        <v>0.2584938268123911</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3156287549133075</v>
+        <v>0.3236525260514007</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>290</v>
@@ -2524,19 +2524,19 @@
         <v>315357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>288173</v>
+        <v>284599</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>344428</v>
+        <v>342571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3600799666150442</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3290413780781622</v>
+        <v>0.3249604479545793</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3932740823658569</v>
+        <v>0.3911540529058457</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>524</v>
@@ -2545,19 +2545,19 @@
         <v>568401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>527839</v>
+        <v>532252</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>611692</v>
+        <v>612034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3227879379954114</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2997533104360434</v>
+        <v>0.3022596649347918</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3473727171217155</v>
+        <v>0.3475665092956804</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>632071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>605747</v>
+        <v>598645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>659080</v>
+        <v>656318</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7141114449985655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6843712450866923</v>
+        <v>0.6763474739485991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7446258971564842</v>
+        <v>0.7415061731876088</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>531</v>
@@ -2595,19 +2595,19 @@
         <v>560439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>531368</v>
+        <v>533225</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>587623</v>
+        <v>591197</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6399200333849557</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6067259176341431</v>
+        <v>0.6088459470941543</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6709586219218379</v>
+        <v>0.6750395520454207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1127</v>
@@ -2616,19 +2616,19 @@
         <v>1192510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1149219</v>
+        <v>1148877</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1233072</v>
+        <v>1228659</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6772120620045885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6526272828782845</v>
+        <v>0.6524334907043198</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7002466895639566</v>
+        <v>0.6977403350652082</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>98688</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80395</v>
+        <v>79296</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121283</v>
+        <v>119133</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1961898615527291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1598230470693159</v>
+        <v>0.1576382116218946</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2411074526803267</v>
+        <v>0.2368343679304247</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -2741,19 +2741,19 @@
         <v>138276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118176</v>
+        <v>117879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157970</v>
+        <v>159019</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3054237960772323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2610259831323635</v>
+        <v>0.2603707078017767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3489223563654411</v>
+        <v>0.3512403505021621</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -2762,19 +2762,19 @@
         <v>236964</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>209289</v>
+        <v>208700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266166</v>
+        <v>267137</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2479331652049317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2189772675728838</v>
+        <v>0.2183609525849479</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2784868414816805</v>
+        <v>0.2795025592956217</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>404335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>381740</v>
+        <v>383890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>422628</v>
+        <v>423727</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8038101384472709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7588925473196738</v>
+        <v>0.7631656320695748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8401769529306842</v>
+        <v>0.8423617883781054</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>288</v>
@@ -2812,19 +2812,19 @@
         <v>314460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>294766</v>
+        <v>293717</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>334560</v>
+        <v>334857</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6945762039227676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6510776436345589</v>
+        <v>0.6487596494978379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7389740168676365</v>
+        <v>0.7396292921982233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>664</v>
@@ -2833,19 +2833,19 @@
         <v>718794</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>689592</v>
+        <v>688621</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746469</v>
+        <v>747058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7520668347950682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7215131585183195</v>
+        <v>0.7204974407043784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7810227324271163</v>
+        <v>0.7816390474150521</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>860442</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>807735</v>
+        <v>809244</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>918381</v>
+        <v>915411</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2523921729113761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2369317473522263</v>
+        <v>0.2373743360614591</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.269387366155214</v>
+        <v>0.2685162700492763</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1309</v>
@@ -2958,19 +2958,19 @@
         <v>1415273</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1358818</v>
+        <v>1356355</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1477450</v>
+        <v>1473864</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3994875337454355</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3835521005901966</v>
+        <v>0.382856684202308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4170380623067811</v>
+        <v>0.4160257996115278</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2090</v>
@@ -2979,19 +2979,19 @@
         <v>2275715</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2195425</v>
+        <v>2199340</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2353896</v>
+        <v>2354868</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3273530340991715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3158036010771283</v>
+        <v>0.316366840378455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3385990433892673</v>
+        <v>0.3387388869189622</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2548703</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2490764</v>
+        <v>2493734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2601410</v>
+        <v>2599901</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7476078270886239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.730612633844786</v>
+        <v>0.7314837299507236</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7630682526477737</v>
+        <v>0.7626256639385409</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1975</v>
@@ -3029,19 +3029,19 @@
         <v>2127449</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2065272</v>
+        <v>2068858</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2183904</v>
+        <v>2186367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6005124662545646</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5829619376932192</v>
+        <v>0.5839742003884721</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6164478994098037</v>
+        <v>0.6171433157976921</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4387</v>
@@ -3050,19 +3050,19 @@
         <v>4676152</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4597971</v>
+        <v>4596999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4756442</v>
+        <v>4752527</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6726469659008285</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6614009566107326</v>
+        <v>0.6612611130810379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6841963989228717</v>
+        <v>0.683633159621545</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>274142</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>243891</v>
+        <v>247013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>302770</v>
+        <v>306857</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.243033931079964</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.216216011972426</v>
+        <v>0.2189835435034206</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.268413834564769</v>
+        <v>0.2720368697778373</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>456</v>
@@ -3415,19 +3415,19 @@
         <v>504371</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>469929</v>
+        <v>469253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>538852</v>
+        <v>543693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4004340786134817</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3730895411761015</v>
+        <v>0.3725526211309057</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.427809487029937</v>
+        <v>0.4316524148840689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>726</v>
@@ -3436,19 +3436,19 @@
         <v>778513</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>730260</v>
+        <v>737814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>827594</v>
+        <v>832162</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3260706786716661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3058607588922626</v>
+        <v>0.3090247249292485</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3466279903841764</v>
+        <v>0.3485409075367686</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>853855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>825227</v>
+        <v>821140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>884106</v>
+        <v>880984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7569660689200359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7315861654352308</v>
+        <v>0.7279631302221627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7837839880275739</v>
+        <v>0.7810164564965791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>732</v>
@@ -3486,19 +3486,19 @@
         <v>755190</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>720709</v>
+        <v>715868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>789632</v>
+        <v>790308</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5995659213865183</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.572190512970063</v>
+        <v>0.5683475851159312</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6269104588238984</v>
+        <v>0.6274473788690943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1528</v>
@@ -3507,19 +3507,19 @@
         <v>1609045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1559964</v>
+        <v>1555396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1657298</v>
+        <v>1649744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6739293213283339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6533720096158236</v>
+        <v>0.6514590924632309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6941392411077374</v>
+        <v>0.6909752750707511</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>205176</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179844</v>
+        <v>181010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228331</v>
+        <v>233338</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2257601822425628</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1978863964324232</v>
+        <v>0.1991692930967454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2512377528769589</v>
+        <v>0.2567472023332783</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>287</v>
@@ -3632,19 +3632,19 @@
         <v>322438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>291368</v>
+        <v>293323</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>353483</v>
+        <v>351822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3203632216304478</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.289493835853364</v>
+        <v>0.2914355464067031</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3512087421088027</v>
+        <v>0.349558443859999</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>494</v>
@@ -3653,19 +3653,19 @@
         <v>527614</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>486587</v>
+        <v>487920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>567179</v>
+        <v>565217</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2754733438237275</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2540526813631431</v>
+        <v>0.2547487265929287</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2961304236357045</v>
+        <v>0.2951060831628898</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>703649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>680494</v>
+        <v>675487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728981</v>
+        <v>727815</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7742398177574372</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7487622471230411</v>
+        <v>0.7432527976667217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8021136035675768</v>
+        <v>0.8008307069032548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>664</v>
@@ -3703,19 +3703,19 @@
         <v>684037</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>652992</v>
+        <v>654653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>715107</v>
+        <v>713152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6796367783695522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6487912578911973</v>
+        <v>0.6504415561400009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7105061641466354</v>
+        <v>0.7085644535932968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1338</v>
@@ -3724,19 +3724,19 @@
         <v>1387686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1348121</v>
+        <v>1350083</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1428713</v>
+        <v>1427380</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7245266561762725</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7038695763642954</v>
+        <v>0.7048939168371102</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7459473186368567</v>
+        <v>0.7452512734070713</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>187830</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163659</v>
+        <v>163731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>210524</v>
+        <v>213637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2280152312649279</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1986740034122563</v>
+        <v>0.1987602794013896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2555656023551006</v>
+        <v>0.2593444796295554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>226</v>
@@ -3849,19 +3849,19 @@
         <v>257900</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232546</v>
+        <v>232083</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>286500</v>
+        <v>284846</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3344754921003629</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3015935419743483</v>
+        <v>0.3009926082374134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3715669679629688</v>
+        <v>0.3694224155046428</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>409</v>
@@ -3870,19 +3870,19 @@
         <v>445730</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>409826</v>
+        <v>408040</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>482512</v>
+        <v>482600</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2794863774877248</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2569734650745529</v>
+        <v>0.2558533691598796</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3025500452603364</v>
+        <v>0.3026053353389339</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>635929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613235</v>
+        <v>610122</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660100</v>
+        <v>660028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.771984768735072</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7444343976448994</v>
+        <v>0.7406555203704444</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8013259965877437</v>
+        <v>0.8012397205986104</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>502</v>
@@ -3920,19 +3920,19 @@
         <v>513159</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>484559</v>
+        <v>486213</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>538513</v>
+        <v>538976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6655245078996371</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6284330320370312</v>
+        <v>0.6305775844953573</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6984064580256518</v>
+        <v>0.6990073917625867</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1106</v>
@@ -3941,19 +3941,19 @@
         <v>1149088</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1112306</v>
+        <v>1112218</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1184992</v>
+        <v>1186778</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7205136225122752</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6974499547396635</v>
+        <v>0.6973946646610661</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7430265349254471</v>
+        <v>0.7441466308401196</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>105023</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>86145</v>
+        <v>88217</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124135</v>
+        <v>125719</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.207268880956287</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1700118681278368</v>
+        <v>0.1741013433324931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2449859799939917</v>
+        <v>0.2481121252776492</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -4066,19 +4066,19 @@
         <v>141797</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121444</v>
+        <v>121843</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>163298</v>
+        <v>164000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2895607320370875</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2479973892105814</v>
+        <v>0.2488135494030409</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3334662488855679</v>
+        <v>0.3348996235376171</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>228</v>
@@ -4087,19 +4087,19 @@
         <v>246820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>217717</v>
+        <v>220284</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>277171</v>
+        <v>274626</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2477126591316453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2185039864165627</v>
+        <v>0.2210807579489162</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2781728517968877</v>
+        <v>0.27561879303126</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>401678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>382566</v>
+        <v>380982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>420556</v>
+        <v>418484</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7927311190437131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7550140200060083</v>
+        <v>0.7518878747223509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.829988131872163</v>
+        <v>0.8258986566675068</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -4137,19 +4137,19 @@
         <v>347901</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>326400</v>
+        <v>325698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368254</v>
+        <v>367855</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7104392679629125</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6665337511144322</v>
+        <v>0.665100376462383</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7520026107894187</v>
+        <v>0.7511864505969591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>698</v>
@@ -4158,19 +4158,19 @@
         <v>749578</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719227</v>
+        <v>721772</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778681</v>
+        <v>776114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7522873408683547</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7218271482031123</v>
+        <v>0.7243812069687401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7814960135834372</v>
+        <v>0.7789192420510839</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>772171</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>726209</v>
+        <v>726466</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>820676</v>
+        <v>826192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2293158091253378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2156663650277991</v>
+        <v>0.2157426072242859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.243720713778579</v>
+        <v>0.2453585777153943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1095</v>
@@ -4283,19 +4283,19 @@
         <v>1226506</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1166464</v>
+        <v>1173909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1283486</v>
+        <v>1286599</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3477681789816049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3307435630461287</v>
+        <v>0.3328544918837984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3639245012464138</v>
+        <v>0.3648070969717058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1857</v>
@@ -4304,19 +4304,19 @@
         <v>1998677</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1923363</v>
+        <v>1923564</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2077653</v>
+        <v>2074529</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2899123266223891</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.278987877034144</v>
+        <v>0.2790170267091325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3013678584165559</v>
+        <v>0.300914723286998</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2595111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2546606</v>
+        <v>2541090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2641073</v>
+        <v>2640816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7706841908746622</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.756279286221421</v>
+        <v>0.7546414222846058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.784333634972201</v>
+        <v>0.784257392775714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2227</v>
@@ -4354,19 +4354,19 @@
         <v>2300286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2243306</v>
+        <v>2240193</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2360328</v>
+        <v>2352883</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6522318210183952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6360754987535865</v>
+        <v>0.6351929030282943</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6692564369538717</v>
+        <v>0.6671455081162018</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4670</v>
@@ -4375,19 +4375,19 @@
         <v>4895398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4816422</v>
+        <v>4819546</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4970712</v>
+        <v>4970511</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7100876733776109</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6986321415834441</v>
+        <v>0.699085276713002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7210121229658559</v>
+        <v>0.7209829732908676</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>189992</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>167450</v>
+        <v>166177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>212270</v>
+        <v>212601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3809445444806328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3357476959140879</v>
+        <v>0.3331934633552933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4256128676203362</v>
+        <v>0.4262776753531416</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>494</v>
@@ -4740,19 +4740,19 @@
         <v>312834</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>290938</v>
+        <v>289057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>335367</v>
+        <v>335024</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5016739078660328</v>
+        <v>0.5016739078660329</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.466560270285725</v>
+        <v>0.4635435927822281</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5378090116415886</v>
+        <v>0.5372586988833721</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>693</v>
@@ -4761,19 +4761,19 @@
         <v>502826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>470311</v>
+        <v>470673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>535964</v>
+        <v>536616</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4480238757907177</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.419052143036395</v>
+        <v>0.4193752921323222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4775499653161241</v>
+        <v>0.4781306594612377</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>308747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286469</v>
+        <v>286138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>331289</v>
+        <v>332562</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6190554555193674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5743871323796637</v>
+        <v>0.5737223246468584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6642523040859115</v>
+        <v>0.6668065366447067</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>367</v>
@@ -4811,19 +4811,19 @@
         <v>310746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288213</v>
+        <v>288556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>332642</v>
+        <v>334523</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4983260921339669</v>
+        <v>0.4983260921339671</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4621909883584112</v>
+        <v>0.4627413011166281</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5334397297142751</v>
+        <v>0.536456407217772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>623</v>
@@ -4832,19 +4832,19 @@
         <v>619494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>586356</v>
+        <v>585704</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>652009</v>
+        <v>651647</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5519761242092822</v>
+        <v>0.5519761242092823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5224500346838759</v>
+        <v>0.5218693405387622</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5809478569636052</v>
+        <v>0.5806247078676782</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>281887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>253463</v>
+        <v>252491</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>312679</v>
+        <v>311628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2935908044661464</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.263986061436345</v>
+        <v>0.2629740754054218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3256607620578971</v>
+        <v>0.324566238145675</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>776</v>
@@ -4957,19 +4957,19 @@
         <v>470418</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>440953</v>
+        <v>440130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>498346</v>
+        <v>498918</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4215786854047706</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3951730039995752</v>
+        <v>0.3944350915586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.446607281069668</v>
+        <v>0.4471197224178826</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1119</v>
@@ -4978,19 +4978,19 @@
         <v>752306</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>713512</v>
+        <v>706589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>792951</v>
+        <v>791608</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3623847123094353</v>
+        <v>0.3623847123094352</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3436979969546946</v>
+        <v>0.3403629214593499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3819635483151891</v>
+        <v>0.3813165817979431</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>678250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>647458</v>
+        <v>648509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>706674</v>
+        <v>707646</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7064091955338538</v>
+        <v>0.7064091955338537</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6743392379421029</v>
+        <v>0.675433761854325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.736013938563655</v>
+        <v>0.7370259245945781</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>831</v>
@@ -5028,19 +5028,19 @@
         <v>645431</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>617503</v>
+        <v>616931</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>674896</v>
+        <v>675719</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5784213145952294</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5533927189303318</v>
+        <v>0.5528802775821174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6048269960004248</v>
+        <v>0.6055649084414</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1398</v>
@@ -5049,19 +5049,19 @@
         <v>1323680</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1283035</v>
+        <v>1284378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1362474</v>
+        <v>1369397</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6376152876905647</v>
+        <v>0.6376152876905649</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6180364516848108</v>
+        <v>0.6186834182020569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6563020030453055</v>
+        <v>0.6596370785406501</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>278369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>250521</v>
+        <v>248057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>306026</v>
+        <v>313337</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2660054724600628</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2393941994744388</v>
+        <v>0.237039322324037</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2924344112907757</v>
+        <v>0.2994203828293981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>631</v>
@@ -5174,19 +5174,19 @@
         <v>380216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>353354</v>
+        <v>352391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>406410</v>
+        <v>406670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3629252332863688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3372854475568065</v>
+        <v>0.3363656235476746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3879278757070796</v>
+        <v>0.3881763661402408</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>965</v>
@@ -5195,19 +5195,19 @@
         <v>658585</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>618031</v>
+        <v>616293</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>698449</v>
+        <v>696716</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.314492250887616</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2951267637365516</v>
+        <v>0.2942966910715614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3335285747780657</v>
+        <v>0.3327009166460299</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>768110</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740453</v>
+        <v>733142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>795958</v>
+        <v>798422</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7339945275399371</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7075655887092243</v>
+        <v>0.700579617170602</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7606058005255611</v>
+        <v>0.7629606776759632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>885</v>
@@ -5245,19 +5245,19 @@
         <v>667426</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641232</v>
+        <v>640972</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>694288</v>
+        <v>695251</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6370747667136312</v>
+        <v>0.6370747667136313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6120721242929205</v>
+        <v>0.6118236338597596</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6627145524431935</v>
+        <v>0.6636343764523261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1580</v>
@@ -5266,19 +5266,19 @@
         <v>1435536</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1395672</v>
+        <v>1397405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1476090</v>
+        <v>1477828</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.685507749112384</v>
+        <v>0.6855077491123841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6664714252219343</v>
+        <v>0.6672990833539701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7048732362634483</v>
+        <v>0.7057033089284386</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>283420</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252009</v>
+        <v>256132</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>313638</v>
+        <v>314865</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2904102303562006</v>
+        <v>0.2904102303562007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2582248160571538</v>
+        <v>0.2624493447861775</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3213736429632281</v>
+        <v>0.3226309679682161</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>548</v>
@@ -5391,19 +5391,19 @@
         <v>330891</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>304580</v>
+        <v>305354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>354521</v>
+        <v>355219</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3634781342304951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3345761960901019</v>
+        <v>0.3354265842438716</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3894361992008533</v>
+        <v>0.3902021083158703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>869</v>
@@ -5412,19 +5412,19 @@
         <v>614310</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>575533</v>
+        <v>575687</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>656663</v>
+        <v>653007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3256739268250023</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3051164917926618</v>
+        <v>0.3051981972954268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3481272340504125</v>
+        <v>0.3461888965474046</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>692509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662291</v>
+        <v>661064</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>723920</v>
+        <v>719797</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7095897696437995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.678626357036772</v>
+        <v>0.6773690320317843</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.741775183942846</v>
+        <v>0.7375506552138225</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>776</v>
@@ -5462,19 +5462,19 @@
         <v>579454</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>555824</v>
+        <v>555126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>605765</v>
+        <v>604991</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.636521865769505</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.610563800799147</v>
+        <v>0.6097978916841297</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6654238039098982</v>
+        <v>0.6645734157561285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1402</v>
@@ -5483,19 +5483,19 @@
         <v>1271964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1229611</v>
+        <v>1233267</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1310741</v>
+        <v>1310587</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6743260731749978</v>
+        <v>0.6743260731749977</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6518727659495874</v>
+        <v>0.6538111034525954</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.694883508207338</v>
+        <v>0.6948018027045734</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>1033668</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>980574</v>
+        <v>976075</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1090700</v>
+        <v>1081817</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2969215451548356</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2816703157846667</v>
+        <v>0.280377835689631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3133038223106316</v>
+        <v>0.3107521629042917</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2449</v>
@@ -5608,19 +5608,19 @@
         <v>1494358</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1441225</v>
+        <v>1442939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1547808</v>
+        <v>1542613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4041628646911298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3897925976635895</v>
+        <v>0.3902560312555684</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4186187781554851</v>
+        <v>0.4172136716890034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3646</v>
@@ -5629,19 +5629,19 @@
         <v>2528027</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2444309</v>
+        <v>2450183</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2598367</v>
+        <v>2606937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3521565814772764</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3404946287847074</v>
+        <v>0.3413129289253988</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3619551030733789</v>
+        <v>0.3631487955166353</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2447616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2390584</v>
+        <v>2399467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2500710</v>
+        <v>2505209</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7030784548451644</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6866961776893684</v>
+        <v>0.6892478370957082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7183296842153335</v>
+        <v>0.7196221643103691</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2859</v>
@@ -5679,19 +5679,19 @@
         <v>2203058</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2149608</v>
+        <v>2154803</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2256191</v>
+        <v>2254477</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5958371353088701</v>
+        <v>0.5958371353088702</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5813812218445148</v>
+        <v>0.5827863283109964</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6102074023364105</v>
+        <v>0.6097439687444314</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5003</v>
@@ -5700,19 +5700,19 @@
         <v>4650674</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4580334</v>
+        <v>4571764</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4734392</v>
+        <v>4728518</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6478434185227236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6380448969266213</v>
+        <v>0.6368512044833649</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6595053712152927</v>
+        <v>0.6586870710746018</v>
       </c>
     </row>
     <row r="18">
